--- a/va_facility_data_2025-02-20/Laguna Hills VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Laguna%20Hills%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Laguna Hills VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Laguna%20Hills%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rba378d04f1a947f6ad622cfc64f365bc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8e07f36696aa40b78a8afbdeb993889f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdd30ad726a714f8481fd6c694a2457ea"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R52ffa6bef77f483c8b0d05bd99f6625f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0adeae77dfd3488ca29d447206013f9d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rce4479f4c96c447dae4d3d34556f17c1"/>
   </x:sheets>
 </x:workbook>
 </file>
